--- a/data/fuels/diesel_fuel_characteristics.xlsx
+++ b/data/fuels/diesel_fuel_characteristics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Lower Limit</t>
+          <t>EN590 Lower Limit</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Upper Limit</t>
+          <t>EN590 Upper Limit</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -462,6 +462,66 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>diesel_fuel_for_dt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW_for_dt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ON_for_dt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Diesel_for_dt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Verwa_for_dt</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW50_for_dt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>U75_for_dt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>HVO25_for_dt</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Efecta_for_dt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Efecta Agrotronika_for_dt</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>B20_for_dt</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AG2_for_dt</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>HHO_for_dt</t>
         </is>
       </c>
     </row>
@@ -490,6 +550,18 @@
       <c r="F2" t="n">
         <v>51</v>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,6 +588,18 @@
       <c r="F3" t="n">
         <v>46</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,6 +626,18 @@
       <c r="F4" t="n">
         <v>832.5</v>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +664,18 @@
       <c r="F5" t="n">
         <v>3.25</v>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +702,18 @@
       <c r="F6" t="n">
         <v>10</v>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -620,6 +740,18 @@
       <c r="F7" t="n">
         <v>55</v>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +778,18 @@
       <c r="F8" t="n">
         <v>0.3</v>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -672,6 +816,18 @@
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -698,6 +854,18 @@
       <c r="F10" t="n">
         <v>200</v>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -724,6 +892,18 @@
       <c r="F11" t="n">
         <v>24</v>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -750,6 +930,18 @@
       <c r="F12" t="n">
         <v>7</v>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -776,6 +968,18 @@
       <c r="F13" t="n">
         <v>8</v>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -802,6 +1006,18 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -828,6 +1044,18 @@
       <c r="F15" t="n">
         <v>460</v>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -854,6 +1082,18 @@
       <c r="F16" t="n">
         <v>20</v>
       </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -880,6 +1120,18 @@
       <c r="F17" t="n">
         <v>65</v>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -906,6 +1158,18 @@
       <c r="F18" t="n">
         <v>85</v>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -932,6 +1196,18 @@
       <c r="F19" t="n">
         <v>360</v>
       </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -958,6 +1234,18 @@
       <c r="F20" t="n">
         <v>-15</v>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -984,6 +1272,18 @@
       <c r="F21" t="n">
         <v>-5</v>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1010,6 +1310,18 @@
       <c r="F22" t="n">
         <v>2</v>
       </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/fuels/diesel_fuel_characteristics.xlsx
+++ b/data/fuels/diesel_fuel_characteristics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,67 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>diesel_fuel_for_dt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BIOW_for_dt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ON_for_dt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Diesel_for_dt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Verwa_for_dt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BIOW50_for_dt</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>U75_for_dt</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>HVO25_for_dt</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Efecta_for_dt</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Efecta Agrotronika_for_dt</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>B20_for_dt</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AG2_for_dt</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>HHO_for_dt</t>
         </is>
       </c>
     </row>
@@ -547,21 +492,10 @@
           <t>EN ISO 5165</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>51</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,21 +519,10 @@
           <t>EN ISO 4264</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>46</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -623,21 +546,10 @@
           <t>EN ISO 3675/EN ISO 12185</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>832.5</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -661,21 +573,10 @@
           <t>EN ISO 3104</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>3.25</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -699,21 +600,10 @@
           <t>EN ISO 20846/20884</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,21 +627,10 @@
           <t>EN ISO 2719</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>55</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -775,21 +654,10 @@
           <t>EN ISO 10370</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,21 +681,10 @@
           <t>EN ISO 6245</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>0.01</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -851,21 +708,10 @@
           <t>EN ISO 12937</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,21 +735,10 @@
           <t>EN ISO 12662</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>24</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -927,21 +762,10 @@
           <t>EN 14078</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>7</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -965,21 +789,10 @@
           <t>EN ISO 12916</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1003,21 +816,10 @@
           <t>EN ISO 2160</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1041,21 +843,10 @@
           <t>EN ISO 12156-1</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>460</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1079,21 +870,10 @@
           <t>EN 15751</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
         <v>20</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1117,21 +897,10 @@
           <t>EN ISO 3405</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
         <v>65</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1155,21 +924,10 @@
           <t>EN ISO 3405</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>85</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1193,21 +951,10 @@
           <t>EN ISO 3405</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>360</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1231,21 +978,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>-15</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1269,21 +1005,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>-5</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1307,21 +1032,282 @@
           <t>EN 16576</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Short description</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ON_Diesel_fuel_for_dt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Standard diesel fuel for testing.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Verwa_for_dt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Improved diesel fuel with the trade name Verwa.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BIOW_for_dt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pure methyl esters of used frying oils.</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BIOW50_for_dt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>50% pure methyl esters of used frying oils.</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U75_for_dt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>75% methyl esters of waste vegetable oils with 25% diesel oil.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HVO_for_dt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hydrogenated vegetable oil.</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HVO25_for_dt</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25% hydrogenated vegetable oil volume fraction.</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Efecta_Agrotronika_for_dt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Improved diesel fuel named Efecta Agrotronika.</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B20_for_dt</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Diesel oil with 20% rapeseed oil methyl esters.</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HHO_for_dt</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hydrogenated heating oil.</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AG2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Diesel oil with 2% nanosilver dissolved in water (not used for training models).</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/fuels/diesel_fuel_characteristics.xlsx
+++ b/data/fuels/diesel_fuel_characteristics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,117 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Test Method</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>EN590 Lower Limit</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>EN590 Upper Limit</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Test Method</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Verwa_from_ORLEN Lower Limit</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Verwa_from_ORLEN Upper Limit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>HVO Lower Limit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HVO Upper Limit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HVO25 Lower Limit</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>HVO25 Upper Limit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW Lower Limit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW Upper Limit</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW50 Lower Limit</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW50 Upper Limit</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>diesel_fuel_for_dt</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Verwa_for_dt</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>HVO_for_dt</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HVO25_for_dt</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW_for_dt</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BIOW50_for_dt</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>U75_for_dt</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Efecta_Agrotronika_for_dt</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>B20_for_dt</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>HHO_for_dt</t>
         </is>
       </c>
     </row>
@@ -481,21 +571,73 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EN ISO 5165</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>51</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EN ISO 5165</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51</v>
+      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K2" t="n">
+        <v>65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
         <v>51</v>
       </c>
+      <c r="N2" t="n">
+        <v>47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>51</v>
+      </c>
+      <c r="R2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>48</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,21 +650,73 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EN ISO 4264</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>46</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EN ISO 4264</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>46</v>
+      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>46</v>
       </c>
+      <c r="Q3" t="n">
+        <v>46</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,21 +729,73 @@
           <t>kg/m³</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EN ISO 3675/EN ISO 12185</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>820</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>845</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EN ISO 3675/EN ISO 12185</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>815</v>
+      </c>
       <c r="G4" t="n">
+        <v>845</v>
+      </c>
+      <c r="H4" t="n">
+        <v>770</v>
+      </c>
+      <c r="I4" t="n">
+        <v>790</v>
+      </c>
+      <c r="J4" t="n">
+        <v>800</v>
+      </c>
+      <c r="K4" t="n">
+        <v>820</v>
+      </c>
+      <c r="L4" t="n">
+        <v>870</v>
+      </c>
+      <c r="M4" t="n">
+        <v>885</v>
+      </c>
+      <c r="N4" t="n">
+        <v>850</v>
+      </c>
+      <c r="O4" t="n">
+        <v>870</v>
+      </c>
+      <c r="P4" t="n">
         <v>832.5</v>
       </c>
+      <c r="Q4" t="n">
+        <v>830</v>
+      </c>
+      <c r="R4" t="n">
+        <v>780</v>
+      </c>
+      <c r="S4" t="n">
+        <v>810</v>
+      </c>
+      <c r="T4" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>860</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>832.5</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,21 +808,73 @@
           <t>mm²/s</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EN ISO 3104</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4.5</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EN ISO 3104</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
       <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.25</v>
       </c>
+      <c r="Q5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,21 +887,73 @@
           <t>mg/kg</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EN ISO 20846/20884</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EN ISO 20846/20884</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>10</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -616,21 +966,73 @@
           <t>°C</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EN ISO 2719</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>55</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EN ISO 2719</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>56</v>
+      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>61</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>55</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>130</v>
+      </c>
+      <c r="M7" t="n">
+        <v>160</v>
+      </c>
+      <c r="N7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O7" t="n">
+        <v>130</v>
+      </c>
+      <c r="P7" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>61</v>
+      </c>
+      <c r="S7" t="n">
+        <v>55</v>
+      </c>
+      <c r="T7" t="n">
+        <v>145</v>
+      </c>
+      <c r="U7" t="n">
+        <v>115</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -643,21 +1045,73 @@
           <t>% m/m</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EN ISO 10370</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EN ISO 10370</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="n">
         <v>0.3</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,21 +1124,73 @@
           <t>% m/m</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EN ISO 6245</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.01</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EN ISO 6245</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -697,21 +1203,73 @@
           <t>mg/kg</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EN ISO 12937</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>200</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EN ISO 12937</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" t="n">
         <v>200</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>200</v>
+      </c>
+      <c r="R10" t="n">
+        <v>200</v>
+      </c>
+      <c r="S10" t="n">
+        <v>200</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -724,21 +1282,73 @@
           <t>mg/kg</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EN ISO 12662</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>24</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>EN ISO 12662</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" t="n">
         <v>24</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -751,21 +1361,73 @@
           <t>% v/v</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EN 14078</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>EN 14078</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" t="n">
         <v>7</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="n">
+        <v>40</v>
+      </c>
+      <c r="O12" t="n">
+        <v>42</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>41</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -778,21 +1440,73 @@
           <t>% m/m</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EN ISO 12916</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>EN ISO 12916</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>8</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -805,21 +1519,73 @@
           <t>index</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EN ISO 2160</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>EN ISO 2160</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -832,21 +1598,73 @@
           <t>µm</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EN ISO 12156-1</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>460</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>EN ISO 12156-1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" t="n">
         <v>460</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>460</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -859,21 +1677,73 @@
           <t>h</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EN 15751</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>20</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>EN 15751</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>20</v>
       </c>
+      <c r="Q16" t="n">
+        <v>20</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -886,21 +1756,73 @@
           <t>% v/v</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EN ISO 3405</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>65</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>EN ISO 3405</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" t="n">
         <v>65</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>40</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -913,21 +1835,73 @@
           <t>% v/v</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EN ISO 3405</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>85</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>EN ISO 3405</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>360</v>
+      </c>
+      <c r="J18" t="n">
+        <v>90</v>
+      </c>
+      <c r="K18" t="n">
+        <v>95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>85</v>
       </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>360</v>
+      </c>
+      <c r="S18" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -940,21 +1914,73 @@
           <t>°C</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EN ISO 3405</t>
+        </is>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>360</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>EN ISO 3405</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" t="n">
         <v>360</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>320</v>
+      </c>
+      <c r="J19" t="n">
+        <v>350</v>
+      </c>
+      <c r="K19" t="n">
+        <v>360</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>360</v>
+      </c>
+      <c r="R19" t="n">
+        <v>320</v>
+      </c>
+      <c r="S19" t="n">
+        <v>355</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -967,21 +1993,73 @@
           <t>°C</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>-15</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-15</v>
       </c>
+      <c r="K20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-34</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -994,21 +2072,73 @@
           <t>°C</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>-5</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-5</v>
       </c>
+      <c r="J21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1021,21 +2151,73 @@
           <t>mg/l</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EN 16576</t>
+        </is>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>EN 16576</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>2</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1044,269 +2226,80 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ON_Diesel_fuel_for_dt</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Standard diesel fuel for testing.</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Verwa_for_dt</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Improved diesel fuel with the trade name Verwa.</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BIOW_for_dt</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Pure methyl esters of used frying oils.</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BIOW50_for_dt</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>50% pure methyl esters of used frying oils.</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>U75_for_dt</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>75% methyl esters of waste vegetable oils with 25% diesel oil.</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HVO_for_dt</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Hydrogenated vegetable oil.</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HVO25_for_dt</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>25% hydrogenated vegetable oil volume fraction.</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Efecta_Agrotronika_for_dt</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Improved diesel fuel named Efecta Agrotronika.</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>B20_for_dt</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Diesel oil with 20% rapeseed oil methyl esters.</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>HHO_for_dt</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hydrogenated heating oil.</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AG2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Diesel oil with 2% nanosilver dissolved in water (not used for training models).</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>mixture of methyl esters of waste vegetable oils 75% with diesel oil – 25% volume fraction</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>??? improved diesel fuel with the trade name Efecta Agrotronika</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>mixture of diesel oil with rapeseed oil methyl esters 20% volume fraction</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>??hydrogenated heating oil</t>
+        </is>
       </c>
     </row>
   </sheetData>
